--- a/main/ig/StructureDefinition-FrInpatientMedicationDispense.xlsx
+++ b/main/ig/StructureDefinition-FrInpatientMedicationDispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T14:38:29+00:00</t>
+    <t>2024-07-11T12:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrInpatientMedicationDispense.xlsx
+++ b/main/ig/StructureDefinition-FrInpatientMedicationDispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T12:41:29+00:00</t>
+    <t>2024-08-13T14:32:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrInpatientMedicationDispense.xlsx
+++ b/main/ig/StructureDefinition-FrInpatientMedicationDispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="366">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T14:32:33+00:00</t>
+    <t>2024-09-03T11:48:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}mdd-1:whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mdd-1:whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}</t>
   </si>
   <si>
     <t>Event</t>
@@ -310,17 +310,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>MedicationDispense.implicitRules</t>
   </si>
   <si>
@@ -340,9 +333,6 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationDispense.language</t>
   </si>
   <si>
@@ -420,6 +410,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>MedicationDispense.extension</t>
   </si>
   <si>
@@ -440,16 +433,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -501,9 +484,6 @@
     <t>CombinedMedicationDispense.id</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
     <t>MedicationDispense.partOf</t>
   </si>
   <si>
@@ -517,13 +497,6 @@
     <t>The procedure that trigger the dispense.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>Event.partOf</t>
   </si>
   <si>
@@ -616,9 +589,6 @@
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication dispense"].value</t>
   </si>
   <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
     <t>MedicationDispense.medication[x]</t>
   </si>
   <si>
@@ -757,6 +727,9 @@
     <t>Element.id</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>MedicationDispense.performer.extension</t>
   </si>
   <si>
@@ -792,9 +765,6 @@
     <t>Distinguishes the type of performer in the dispense.  For example, date enterer, packager, final checker.</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
     <t>Allows disambiguation of the types of involvement of different performers.</t>
   </si>
   <si>
@@ -902,13 +872,6 @@
   </si>
   <si>
     <t>The amount of medication that has been dispensed. Includes unit of measure.</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>.quantity</t>
@@ -1019,9 +982,6 @@
   </si>
   <si>
     <t>Extra information about the dispense that could not be conveyed in the other attributes.</t>
-  </si>
-  <si>
-    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).</t>
   </si>
   <si>
     <t>Event.note</t>
@@ -1531,7 +1491,7 @@
     <col min="26" max="26" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="46.84375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1996,16 +1956,16 @@
         <v>85</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>19</v>
@@ -2019,10 +1979,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2045,16 +2005,16 @@
         <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2104,7 +2064,7 @@
         <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -2113,16 +2073,16 @@
         <v>85</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>19</v>
@@ -2136,10 +2096,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2162,16 +2122,16 @@
         <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2197,31 +2157,31 @@
         <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -2230,16 +2190,16 @@
         <v>85</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>19</v>
@@ -2253,14 +2213,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2279,16 +2239,16 @@
         <v>19</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2338,7 +2298,7 @@
         <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -2347,16 +2307,16 @@
         <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>19</v>
@@ -2370,14 +2330,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2396,16 +2356,16 @@
         <v>19</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2455,7 +2415,7 @@
         <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -2473,7 +2433,7 @@
         <v>19</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>19</v>
@@ -2487,14 +2447,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2513,16 +2473,16 @@
         <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2560,19 +2520,19 @@
         <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -2581,16 +2541,16 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>19</v>
@@ -2604,14 +2564,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2630,19 +2590,19 @@
         <v>19</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>19</v>
@@ -2679,19 +2639,19 @@
         <v>19</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2700,16 +2660,16 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>19</v>
@@ -2723,10 +2683,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2749,16 +2709,16 @@
         <v>19</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2808,7 +2768,7 @@
         <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2817,33 +2777,33 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>156</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2866,17 +2826,15 @@
         <v>19</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>19</v>
@@ -2925,7 +2883,7 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2934,16 +2892,16 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>19</v>
@@ -2957,10 +2915,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2983,16 +2941,16 @@
         <v>86</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3018,13 +2976,13 @@
         <v>19</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>19</v>
@@ -3042,7 +3000,7 @@
         <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>85</v>
@@ -3051,22 +3009,22 @@
         <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK13" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>19</v>
@@ -3074,10 +3032,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3100,13 +3058,13 @@
         <v>19</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3133,13 +3091,13 @@
         <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>19</v>
@@ -3157,7 +3115,7 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -3166,16 +3124,16 @@
         <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>19</v>
@@ -3189,10 +3147,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3215,16 +3173,16 @@
         <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3250,13 +3208,13 @@
         <v>19</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>19</v>
@@ -3274,7 +3232,7 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3283,16 +3241,16 @@
         <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>19</v>
@@ -3301,15 +3259,15 @@
         <v>19</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>193</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3332,16 +3290,16 @@
         <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3367,13 +3325,13 @@
         <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>19</v>
@@ -3391,7 +3349,7 @@
         <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>85</v>
@@ -3400,33 +3358,33 @@
         <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK16" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3449,16 +3407,16 @@
         <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3508,7 +3466,7 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3517,33 +3475,33 @@
         <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ17" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="AK17" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3566,17 +3524,15 @@
         <v>19</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>19</v>
@@ -3625,7 +3581,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3634,16 +3590,16 @@
         <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ18" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="AK18" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>19</v>
@@ -3657,10 +3613,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3683,17 +3639,15 @@
         <v>19</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>19</v>
@@ -3742,7 +3696,7 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3751,19 +3705,19 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="AK19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>19</v>
@@ -3774,10 +3728,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3800,13 +3754,13 @@
         <v>19</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3857,7 +3811,7 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3866,16 +3820,16 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK20" t="s" s="2">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>19</v>
@@ -3889,10 +3843,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3915,13 +3869,13 @@
         <v>19</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3972,7 +3926,7 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3990,7 +3944,7 @@
         <v>19</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>106</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>19</v>
@@ -4004,14 +3958,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4030,16 +3984,16 @@
         <v>19</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4077,19 +4031,19 @@
         <v>19</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4098,16 +4052,16 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>19</v>
@@ -4121,14 +4075,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4147,19 +4101,19 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>19</v>
@@ -4208,7 +4162,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4217,16 +4171,16 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>19</v>
@@ -4240,10 +4194,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4266,19 +4220,17 @@
         <v>19</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>19</v>
@@ -4303,13 +4255,13 @@
         <v>19</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>19</v>
@@ -4327,7 +4279,7 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4336,16 +4288,16 @@
         <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK24" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>19</v>
@@ -4354,15 +4306,15 @@
         <v>19</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>193</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4385,17 +4337,15 @@
         <v>19</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>19</v>
@@ -4444,7 +4394,7 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>85</v>
@@ -4453,16 +4403,16 @@
         <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="AK25" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>19</v>
@@ -4476,10 +4426,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4502,17 +4452,15 @@
         <v>19</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>19</v>
@@ -4561,7 +4509,7 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4570,16 +4518,16 @@
         <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="AK26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>19</v>
@@ -4593,10 +4541,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4619,16 +4567,16 @@
         <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4678,7 +4626,7 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4687,33 +4635,33 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="AK27" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4736,17 +4684,15 @@
         <v>19</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>19</v>
@@ -4771,13 +4717,13 @@
         <v>19</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>19</v>
@@ -4795,7 +4741,7 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4804,33 +4750,33 @@
         <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4853,17 +4799,15 @@
         <v>19</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>19</v>
@@ -4912,7 +4856,7 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4921,33 +4865,33 @@
         <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="AK29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4970,17 +4914,15 @@
         <v>19</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>19</v>
@@ -5029,7 +4971,7 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -5038,16 +4980,16 @@
         <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="AK30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>19</v>
@@ -5056,15 +4998,15 @@
         <v>19</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5087,13 +5029,13 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5144,7 +5086,7 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5153,33 +5095,33 @@
         <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5202,13 +5144,13 @@
         <v>19</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5259,7 +5201,7 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5268,33 +5210,33 @@
         <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5317,17 +5259,15 @@
         <v>19</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>19</v>
@@ -5376,7 +5316,7 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5385,33 +5325,33 @@
         <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="AK33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5434,17 +5374,15 @@
         <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>19</v>
@@ -5493,7 +5431,7 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5502,22 +5440,22 @@
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="AK34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>19</v>
@@ -5525,10 +5463,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5551,17 +5489,15 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>19</v>
@@ -5610,7 +5546,7 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5619,16 +5555,16 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK35" t="s" s="2">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>19</v>
@@ -5637,15 +5573,15 @@
         <v>19</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5668,16 +5604,16 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5727,7 +5663,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5736,16 +5672,16 @@
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK36" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>19</v>
@@ -5759,10 +5695,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5785,13 +5721,13 @@
         <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5842,7 +5778,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5851,22 +5787,22 @@
         <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>19</v>
@@ -5874,10 +5810,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5900,13 +5836,13 @@
         <v>19</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5957,7 +5893,7 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -5975,7 +5911,7 @@
         <v>19</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>106</v>
+        <v>229</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>19</v>
@@ -5989,14 +5925,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6015,16 +5951,16 @@
         <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6062,19 +5998,19 @@
         <v>19</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6083,16 +6019,16 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>19</v>
@@ -6106,14 +6042,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6132,19 +6068,19 @@
         <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>19</v>
@@ -6193,7 +6129,7 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6202,16 +6138,16 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>19</v>
@@ -6225,10 +6161,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6251,13 +6187,13 @@
         <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6308,7 +6244,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>85</v>
@@ -6317,16 +6253,16 @@
         <v>85</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ41" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>19</v>
@@ -6340,10 +6276,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6366,17 +6302,15 @@
         <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>19</v>
@@ -6401,13 +6335,13 @@
         <v>19</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>19</v>
@@ -6425,7 +6359,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6434,33 +6368,33 @@
         <v>85</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK42" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6483,17 +6417,15 @@
         <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>19</v>
@@ -6518,13 +6450,13 @@
         <v>19</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>19</v>
@@ -6542,7 +6474,7 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6551,33 +6483,33 @@
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ43" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="AK43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>193</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6600,17 +6532,15 @@
         <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>19</v>
@@ -6659,7 +6589,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6668,22 +6598,22 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="AK44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>19</v>
@@ -6691,14 +6621,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6717,16 +6647,16 @@
         <v>19</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6776,7 +6706,7 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6785,16 +6715,16 @@
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="AK45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>19</v>
@@ -6808,10 +6738,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6834,16 +6764,16 @@
         <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6893,7 +6823,7 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6902,16 +6832,16 @@
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="AK46" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>19</v>

--- a/main/ig/StructureDefinition-FrInpatientMedicationDispense.xlsx
+++ b/main/ig/StructureDefinition-FrInpatientMedicationDispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T11:48:25+00:00</t>
+    <t>2024-09-03T12:38:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrInpatientMedicationDispense.xlsx
+++ b/main/ig/StructureDefinition-FrInpatientMedicationDispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T12:38:03+00:00</t>
+    <t>2024-09-18T09:33:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-FrInpatientMedicationDispense.xlsx
+++ b/main/ig/StructureDefinition-FrInpatientMedicationDispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T09:33:57+00:00</t>
+    <t>2024-11-13T15:16:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
